--- a/va_facility_data_2025-02-20/East Orange VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''East%20Orange%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/East Orange VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''East%20Orange%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R8da25615a9f34635a1d7158093273f43"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R2131d96073dc43daa9ed50b334277c7c"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R395a532084a64b1e8e7ab0cd9bed0eab"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R78c4dde0b68d4845b57dade7e3db1e8f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R4415d902d85544fabcccfd97875cb79f"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R1a529a429b4d4a53a958f0936277b5e3"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Re63a400e8e5b443f9590459ee919ff1b"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2e193481fb2c4a3ab7bcad24d6f1f9d1"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd83d5a9f08a34759b13f59f3936ed500"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc450f7c827f14e70b40e08f46c595a57"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R4933a8f0626341deaa45fbe842db8d83"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R8d690ad5615248fabf8365391ca2ea6a"/>
   </x:sheets>
 </x:workbook>
 </file>
